--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro5\Downloads\infinity_inventory_vvss-main\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro5\Downloads\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7433E6-922F-426D-88BA-5DB304EAF359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D411A14-9920-4A4F-BC47-8EBF162074AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -530,6 +530,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -572,8 +574,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="H1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,19 +904,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -929,43 +929,43 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="17">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="17">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="17">
@@ -977,15 +977,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1195,8 +1195,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="H1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,19 +1216,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1241,43 +1241,43 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="17">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="17">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="17">
@@ -1289,15 +1289,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J5" sqref="H1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,19 +1528,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1553,43 +1553,43 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="17">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="17">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="17">
@@ -1601,15 +1601,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1842,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1867,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,19 +1890,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1915,41 +1915,41 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="17">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="17">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="17">
@@ -1961,8 +1961,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,11 +2232,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro5\Downloads\02_Inventory\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro5\Desktop\VVSS\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D411A14-9920-4A4F-BC47-8EBF162074AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF496B-782A-482A-8B30-5A1EF1B11E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,9 +205,6 @@
     <t>File file = new File(filename);</t>
   </si>
   <si>
-    <t>It's good practice to have specific variable types.</t>
-  </si>
-  <si>
     <t>Part.java/line 16</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Gheorghe Alexandru-Mihai, Monda Rares, Surlin Darius-Flavian</t>
   </si>
   <si>
-    <t>Care sunt piesele/produsele sterse de catre?</t>
-  </si>
-  <si>
     <t>Identificatorul masinii nu este mentionat nicaieri in campurile entitatilor.</t>
   </si>
   <si>
@@ -302,6 +296,12 @@
   </si>
   <si>
     <t>35 minute</t>
+  </si>
+  <si>
+    <t>Este bine sa fie variabile specifice.</t>
+  </si>
+  <si>
+    <t>Care sunt piesele/produsele sterse?</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="H1:J5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="17">
         <v>231</v>
@@ -948,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="17">
         <v>234</v>
@@ -959,14 +959,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="17">
         <v>237</v>
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="H1:J5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="17">
         <v>231</v>
@@ -1260,7 +1260,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="17">
         <v>234</v>
@@ -1271,14 +1271,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="17">
         <v>237</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1344,11 +1344,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="H1:J5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="17">
         <v>231</v>
@@ -1572,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="17">
         <v>234</v>
@@ -1583,14 +1583,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="17">
         <v>237</v>
@@ -1636,7 +1636,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="17">
         <v>231</v>
@@ -1927,14 +1927,14 @@
         <v>22</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="17">
         <v>234</v>
@@ -1950,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="17">
         <v>237</v>
@@ -2014,7 +2014,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2023,16 +2023,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2041,16 +2041,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,16 +2059,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
